--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS8.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS8.xlsx
@@ -19,7 +19,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="134">
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
   <si>
     <t>Signal_Value_69</t>
   </si>
@@ -150,6 +312,39 @@
     <t>Signal_Value_111</t>
   </si>
   <si>
+    <t>Signal_Value_112</t>
+  </si>
+  <si>
+    <t>Signal_Value_113</t>
+  </si>
+  <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -222,10 +417,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -586,15 +778,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:DE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:109">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -725,10 +917,205 @@
       <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:109">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -737,103 +1124,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.04350837008212913</v>
       </c>
       <c r="E2">
-        <v>0.00403713164072157</v>
+        <v>0.02848902642331487</v>
       </c>
       <c r="F2">
-        <v>0.0001190511325745135</v>
+        <v>0.009030148011785619</v>
       </c>
       <c r="G2">
-        <v>0.007898463945397479</v>
+        <v>0.0248594753897203</v>
       </c>
       <c r="H2">
-        <v>0.0001748413492997361</v>
+        <v>0.03223734731133487</v>
       </c>
       <c r="I2">
-        <v>0.004474033271739104</v>
+        <v>0.0109243167852421</v>
       </c>
       <c r="J2">
-        <v>0.005964956289576693</v>
+        <v>0.03789923145024399</v>
       </c>
       <c r="K2">
-        <v>0.01226328798166756</v>
+        <v>0.01994712637846863</v>
       </c>
       <c r="L2">
-        <v>0.005558462424257677</v>
+        <v>0.1903437141948843</v>
       </c>
       <c r="M2">
-        <v>0.01817174366697073</v>
+        <v>0.0006920064708409824</v>
       </c>
       <c r="N2">
-        <v>0.07367680559275723</v>
+        <v>0.01532821752168226</v>
       </c>
       <c r="O2">
-        <v>0.04990791082016978</v>
+        <v>0.02663905951825534</v>
       </c>
       <c r="P2">
-        <v>0.0002723064425200676</v>
+        <v>0.03562331723600298</v>
       </c>
       <c r="Q2">
-        <v>0.0370336986777772</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.07430721143578355</v>
+        <v>0.01197479080054826</v>
       </c>
       <c r="S2">
-        <v>0.04976546552513852</v>
+        <v>0.01970641124268527</v>
       </c>
       <c r="T2">
-        <v>0.026066672787896</v>
+        <v>0.1124316396058322</v>
       </c>
       <c r="U2">
-        <v>0.00828252575159954</v>
+        <v>0.05981034249021697</v>
       </c>
       <c r="V2">
-        <v>0.001546452880429918</v>
+        <v>0.0003525434867121618</v>
       </c>
       <c r="W2">
-        <v>0.03529184030194931</v>
+        <v>0.0005840328817282906</v>
       </c>
       <c r="X2">
-        <v>0.07461820408982203</v>
+        <v>0.007871772010130923</v>
       </c>
       <c r="Y2">
-        <v>0.08458473968963728</v>
+        <v>0.0008805958586426972</v>
       </c>
       <c r="Z2">
-        <v>0.06297196195281285</v>
+        <v>0.004352095165367166</v>
       </c>
       <c r="AA2">
-        <v>0.02865752812654701</v>
+        <v>0.001088319415500301</v>
       </c>
       <c r="AB2">
-        <v>0.001738767398627483</v>
+        <v>0.003191074571096261</v>
       </c>
       <c r="AC2">
-        <v>0.008091272785667009</v>
+        <v>0.0004761057239881241</v>
       </c>
       <c r="AD2">
-        <v>0.0273725071178067</v>
+        <v>0.09167247096203372</v>
       </c>
       <c r="AE2">
-        <v>0.04317045335522258</v>
+        <v>0.1410739719109721</v>
       </c>
       <c r="AF2">
-        <v>0.06251150878934117</v>
+        <v>0.002504731344075068</v>
       </c>
       <c r="AG2">
-        <v>0.0766298509845787</v>
+        <v>0.05200552944179122</v>
       </c>
       <c r="AH2">
-        <v>0.06885426022683158</v>
+        <v>0.01449941193437662</v>
       </c>
       <c r="AI2">
-        <v>0.0386328737423709</v>
+        <v>2.804380397464099E-06</v>
       </c>
       <c r="AJ2">
-        <v>0.007353209822508529</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -859,10 +1246,205 @@
       <c r="AR2">
         <v>0</v>
       </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:109">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -871,100 +1453,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001592534027200135</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002958772006981285</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.001007009206415244</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.01336336559108569</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002151208912973586</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008713724299725974</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006280252509684259</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01019182005692858</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.005448922963133873</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.01466170002130044</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.07257179914399996</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.05799091165285567</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.004558607483194415</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.03120340672758775</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.07884082983385357</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.05219887755646654</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02866273740455803</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.02335310189891443</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.00200468937063774</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.02294274628703963</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.06576826266005575</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.08778934459485307</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.06702986841329658</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.03063666878283763</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.003907788723609185</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.00375040189482787</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.01990489469717751</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03540067220167693</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.05246852667020458</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.07104957563174905</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.07239476870997393</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.04920221006520092</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -993,10 +1575,205 @@
       <c r="AR3">
         <v>0</v>
       </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0.04399206509020579</v>
+      </c>
+      <c r="BX3">
+        <v>0.003720986721461496</v>
+      </c>
+      <c r="BY3">
+        <v>0.00234924572590294</v>
+      </c>
+      <c r="BZ3">
+        <v>0.00427535450711355</v>
+      </c>
+      <c r="CA3">
+        <v>0.07695735836987665</v>
+      </c>
+      <c r="CB3">
+        <v>0.04326715982707993</v>
+      </c>
+      <c r="CC3">
+        <v>0.03613889758566135</v>
+      </c>
+      <c r="CD3">
+        <v>0.01618444941370874</v>
+      </c>
+      <c r="CE3">
+        <v>0.08071211703525902</v>
+      </c>
+      <c r="CF3">
+        <v>0.0002858684637226747</v>
+      </c>
+      <c r="CG3">
+        <v>0.01768325070343945</v>
+      </c>
+      <c r="CH3">
+        <v>0.103421723509338</v>
+      </c>
+      <c r="CI3">
+        <v>0.02475122695998934</v>
+      </c>
+      <c r="CJ3">
+        <v>5.869665710178377E-05</v>
+      </c>
+      <c r="CK3">
+        <v>0.04434983110861153</v>
+      </c>
+      <c r="CL3">
+        <v>0.003093362920862219</v>
+      </c>
+      <c r="CM3">
+        <v>0.09212247229419759</v>
+      </c>
+      <c r="CN3">
+        <v>0.08953890105705435</v>
+      </c>
+      <c r="CO3">
+        <v>0.005987096304213046</v>
+      </c>
+      <c r="CP3">
+        <v>0.03480401727353651</v>
+      </c>
+      <c r="CQ3">
+        <v>0.007471390222373858</v>
+      </c>
+      <c r="CR3">
+        <v>0.02245955458816705</v>
+      </c>
+      <c r="CS3">
+        <v>0.08252462203351361</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0.0004846032636492754</v>
+      </c>
+      <c r="CV3">
+        <v>0.001576841854812527</v>
+      </c>
+      <c r="CW3">
+        <v>0.01874010539072282</v>
+      </c>
+      <c r="CX3">
+        <v>0.09855384203250209</v>
+      </c>
+      <c r="CY3">
+        <v>0.009400051183932508</v>
+      </c>
+      <c r="CZ3">
+        <v>0.01075423290885354</v>
+      </c>
+      <c r="DA3">
+        <v>0.02092725610638443</v>
+      </c>
+      <c r="DB3">
+        <v>0.003413418886752272</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:109">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1005,100 +1782,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003062952473459558</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005365477298441336</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0005622838566522467</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02101340697544134</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0007074514560246494</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01001886347670523</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00327856413425788</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01647789025923346</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00687454270357454</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.02447679198564032</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.07804985138993122</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.04195571587410261</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.002553774642444169</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.02551333924543601</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.08116155687865065</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.05483657576869145</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.03080705385888727</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.02167647443881</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0004155417408642096</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.02669820388787512</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.06287439764603241</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.08508412190555212</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.06956262397372569</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.02974217984338047</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.003255047462878166</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.00362454195516946</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01948879480366261</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.03611410636646115</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.05562276225473035</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.07057630861729257</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.06363174848439983</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.04491705434159169</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1127,10 +1904,205 @@
       <c r="AR4">
         <v>0</v>
       </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0.05208975881980726</v>
+      </c>
+      <c r="BW4">
+        <v>0.01455259167719765</v>
+      </c>
+      <c r="BX4">
+        <v>0.004588359942848818</v>
+      </c>
+      <c r="BY4">
+        <v>0.001669268054846727</v>
+      </c>
+      <c r="BZ4">
+        <v>0.0169951153031869</v>
+      </c>
+      <c r="CA4">
+        <v>0.001901479230863819</v>
+      </c>
+      <c r="CB4">
+        <v>0.09086233114320173</v>
+      </c>
+      <c r="CC4">
+        <v>0.00135578730506529</v>
+      </c>
+      <c r="CD4">
+        <v>0.0646986398902132</v>
+      </c>
+      <c r="CE4">
+        <v>0.07206546712810931</v>
+      </c>
+      <c r="CF4">
+        <v>0.004855726651324509</v>
+      </c>
+      <c r="CG4">
+        <v>0.0297322154222409</v>
+      </c>
+      <c r="CH4">
+        <v>0.1831331000738505</v>
+      </c>
+      <c r="CI4">
+        <v>0.05577496210428175</v>
+      </c>
+      <c r="CJ4">
+        <v>0.02184979906188028</v>
+      </c>
+      <c r="CK4">
+        <v>0.01473613958716596</v>
+      </c>
+      <c r="CL4">
+        <v>0.008574825688205202</v>
+      </c>
+      <c r="CM4">
+        <v>0.02227507066289452</v>
+      </c>
+      <c r="CN4">
+        <v>0.09808428868520228</v>
+      </c>
+      <c r="CO4">
+        <v>0.02334756501431284</v>
+      </c>
+      <c r="CP4">
+        <v>0.005147125678256175</v>
+      </c>
+      <c r="CQ4">
+        <v>0.04043768467235589</v>
+      </c>
+      <c r="CR4">
+        <v>0.005492369402479715</v>
+      </c>
+      <c r="CS4">
+        <v>0.08128725239034418</v>
+      </c>
+      <c r="CT4">
+        <v>0.01047401385124788</v>
+      </c>
+      <c r="CU4">
+        <v>0.003975790989376631</v>
+      </c>
+      <c r="CV4">
+        <v>0.0004635876804622348</v>
+      </c>
+      <c r="CW4">
+        <v>0.01451196067704266</v>
+      </c>
+      <c r="CX4">
+        <v>0.02882859395650344</v>
+      </c>
+      <c r="CY4">
+        <v>0.02288161347697689</v>
+      </c>
+      <c r="CZ4">
+        <v>0.003184567043521898</v>
+      </c>
+      <c r="DA4">
+        <v>0.0001729487347329412</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:109">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1166,105 +2138,300 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001292586726154963</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.006818370165639012</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.007880194492629068</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>8.495938744007625E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02265472483474424</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0004864477598705637</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.002456750863921168</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.01064338454276043</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.03694897433179295</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0001369674556286628</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.02187473182515287</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.06766020283217489</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0837708683408913</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0009429173139272799</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.04946429787553174</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.068992637633172</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.04179225669000274</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.03283011079205876</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.02047373392813424</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001748473840702529</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.05129273434982509</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0945823703750852</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.08221998218925969</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.04154801947307165</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.023278436561968</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.003611869118249843</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.004810760963640333</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.02230186285656836</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.03767235709152292</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.05162166009921239</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.05823343584445766</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.04987291944480945</v>
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0.03956517723158087</v>
+      </c>
+      <c r="BJ5">
+        <v>0.006182569313180918</v>
+      </c>
+      <c r="BK5">
+        <v>0.0004822799668489299</v>
+      </c>
+      <c r="BL5">
+        <v>0.006819263926060188</v>
+      </c>
+      <c r="BM5">
+        <v>0.02558233352428904</v>
+      </c>
+      <c r="BN5">
+        <v>0.01114722727827413</v>
+      </c>
+      <c r="BO5">
+        <v>0.02528761095172191</v>
+      </c>
+      <c r="BP5">
+        <v>0.01696231841888363</v>
+      </c>
+      <c r="BQ5">
+        <v>0.1444133436201628</v>
+      </c>
+      <c r="BR5">
+        <v>0.009773126365672898</v>
+      </c>
+      <c r="BS5">
+        <v>0.01389272492578351</v>
+      </c>
+      <c r="BT5">
+        <v>0.01725440091499295</v>
+      </c>
+      <c r="BU5">
+        <v>0.06366930784477517</v>
+      </c>
+      <c r="BV5">
+        <v>0.009507641111881534</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0.01103908253144614</v>
+      </c>
+      <c r="BY5">
+        <v>0.007790022573834639</v>
+      </c>
+      <c r="BZ5">
+        <v>0.1178639536197134</v>
+      </c>
+      <c r="CA5">
+        <v>0.04140173128858878</v>
+      </c>
+      <c r="CB5">
+        <v>0.0008514580025125117</v>
+      </c>
+      <c r="CC5">
+        <v>0.003940529624925536</v>
+      </c>
+      <c r="CD5">
+        <v>0.00126787638267552</v>
+      </c>
+      <c r="CE5">
+        <v>0.02312770939377701</v>
+      </c>
+      <c r="CF5">
+        <v>0.007802867566949508</v>
+      </c>
+      <c r="CG5">
+        <v>0.01505044034194846</v>
+      </c>
+      <c r="CH5">
+        <v>0.01687440133860342</v>
+      </c>
+      <c r="CI5">
+        <v>0.05474138021959836</v>
+      </c>
+      <c r="CJ5">
+        <v>0.1951721005734244</v>
+      </c>
+      <c r="CK5">
+        <v>0.0110363849129492</v>
+      </c>
+      <c r="CL5">
+        <v>0.045305365333399</v>
+      </c>
+      <c r="CM5">
+        <v>0.05504403941952937</v>
+      </c>
+      <c r="CN5">
+        <v>0.001151331482016232</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:109">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1300,100 +2467,295 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.002468630264257757</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.004935312625042505</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0003177412824608767</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.01127524173777518</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001623122081987048</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>5.932303899837495E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.003310661092911226</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.01609605176343112</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.02845022086621828</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001938812593697371</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.02471348518293152</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.06456545606585011</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0404951798280998</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02286696510599126</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0378916910771448</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.05758350069409995</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.07347555538695097</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01837426247259814</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.006358007057222595</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.04490357554848969</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.07942411824260628</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.08573541530116172</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.05418438337671571</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.02018485557608559</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.004146370046135405</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.39068492660194E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.01506090810093543</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.05767640539093926</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.08804579381738013</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.07873141576863096</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.05683856309831268</v>
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0.03985646314812322</v>
+      </c>
+      <c r="CA6">
+        <v>0.000374097977057311</v>
+      </c>
+      <c r="CB6">
+        <v>0.03275587635267829</v>
+      </c>
+      <c r="CC6">
+        <v>0.02758990913442384</v>
+      </c>
+      <c r="CD6">
+        <v>0.06547996367741377</v>
+      </c>
+      <c r="CE6">
+        <v>0.01141835753024388</v>
+      </c>
+      <c r="CF6">
+        <v>0.02067315288002915</v>
+      </c>
+      <c r="CG6">
+        <v>0.01418976602578062</v>
+      </c>
+      <c r="CH6">
+        <v>0.2055692762452592</v>
+      </c>
+      <c r="CI6">
+        <v>0.01131221804478196</v>
+      </c>
+      <c r="CJ6">
+        <v>0.0165533733828069</v>
+      </c>
+      <c r="CK6">
+        <v>0.03567949722723874</v>
+      </c>
+      <c r="CL6">
+        <v>0.004551682167180903</v>
+      </c>
+      <c r="CM6">
+        <v>0.01617143187478698</v>
+      </c>
+      <c r="CN6">
+        <v>0.02247144535345399</v>
+      </c>
+      <c r="CO6">
+        <v>0.09086760240793457</v>
+      </c>
+      <c r="CP6">
+        <v>0.04832446976429963</v>
+      </c>
+      <c r="CQ6">
+        <v>0.01452771444659569</v>
+      </c>
+      <c r="CR6">
+        <v>0.03237672296096602</v>
+      </c>
+      <c r="CS6">
+        <v>0.02770020127068893</v>
+      </c>
+      <c r="CT6">
+        <v>0.0002894593471565882</v>
+      </c>
+      <c r="CU6">
+        <v>0.02368916862340681</v>
+      </c>
+      <c r="CV6">
+        <v>0.029121096300987</v>
+      </c>
+      <c r="CW6">
+        <v>0.002917173541894583</v>
+      </c>
+      <c r="CX6">
+        <v>0.0139242895481722</v>
+      </c>
+      <c r="CY6">
+        <v>0.001032953659975764</v>
+      </c>
+      <c r="CZ6">
+        <v>0.049972552568343</v>
+      </c>
+      <c r="DA6">
+        <v>0.08959783240934963</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0.01289024030520335</v>
+      </c>
+      <c r="DD6">
+        <v>0.03463266694763457</v>
+      </c>
+      <c r="DE6">
+        <v>0.003489344876132915</v>
       </c>
     </row>
   </sheetData>
@@ -1403,15 +2765,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:DE6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:109">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1542,10 +2904,205 @@
       <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:109">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1554,100 +3111,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.04350837008212913</v>
       </c>
       <c r="E2">
-        <v>0.00403713164072157</v>
+        <v>0.071997396505444</v>
       </c>
       <c r="F2">
-        <v>0.004156182773296083</v>
+        <v>0.08102754451722961</v>
       </c>
       <c r="G2">
-        <v>0.01205464671869356</v>
+        <v>0.1058870199069499</v>
       </c>
       <c r="H2">
-        <v>0.0122294880679933</v>
+        <v>0.1381243672182848</v>
       </c>
       <c r="I2">
-        <v>0.0167035213397324</v>
+        <v>0.1490486840035269</v>
       </c>
       <c r="J2">
-        <v>0.02266847762930909</v>
+        <v>0.1869479154537709</v>
       </c>
       <c r="K2">
-        <v>0.03493176561097666</v>
+        <v>0.2068950418322395</v>
       </c>
       <c r="L2">
-        <v>0.04049022803523434</v>
+        <v>0.3972387560271238</v>
       </c>
       <c r="M2">
-        <v>0.05866197170220507</v>
+        <v>0.3979307624979648</v>
       </c>
       <c r="N2">
-        <v>0.1323387772949623</v>
+        <v>0.413258980019647</v>
       </c>
       <c r="O2">
-        <v>0.1822466881151321</v>
+        <v>0.4398980395379024</v>
       </c>
       <c r="P2">
-        <v>0.1825189945576521</v>
+        <v>0.4755213567739053</v>
       </c>
       <c r="Q2">
-        <v>0.2195526932354293</v>
+        <v>0.4755213567739053</v>
       </c>
       <c r="R2">
-        <v>0.2938599046712129</v>
+        <v>0.4874961475744536</v>
       </c>
       <c r="S2">
-        <v>0.3436253701963514</v>
+        <v>0.5072025588171388</v>
       </c>
       <c r="T2">
-        <v>0.3696920429842473</v>
+        <v>0.619634198422971</v>
       </c>
       <c r="U2">
-        <v>0.3779745687358469</v>
+        <v>0.679444540913188</v>
       </c>
       <c r="V2">
-        <v>0.3795210216162768</v>
+        <v>0.6797970843999002</v>
       </c>
       <c r="W2">
-        <v>0.4148128619182261</v>
+        <v>0.6803811172816284</v>
       </c>
       <c r="X2">
-        <v>0.4894310660080482</v>
+        <v>0.6882528892917593</v>
       </c>
       <c r="Y2">
-        <v>0.5740158056976855</v>
+        <v>0.6891334851504021</v>
       </c>
       <c r="Z2">
-        <v>0.6369877676504984</v>
+        <v>0.6934855803157692</v>
       </c>
       <c r="AA2">
-        <v>0.6656452957770453</v>
+        <v>0.6945738997312695</v>
       </c>
       <c r="AB2">
-        <v>0.6673840631756728</v>
+        <v>0.6977649743023657</v>
       </c>
       <c r="AC2">
-        <v>0.6754753359613398</v>
+        <v>0.6982410800263539</v>
       </c>
       <c r="AD2">
-        <v>0.7028478430791465</v>
+        <v>0.7899135509883876</v>
       </c>
       <c r="AE2">
-        <v>0.7460182964343691</v>
+        <v>0.9309875228993596</v>
       </c>
       <c r="AF2">
-        <v>0.8085298052237103</v>
+        <v>0.9334922542434346</v>
       </c>
       <c r="AG2">
-        <v>0.8851596562082891</v>
+        <v>0.9854977836852259</v>
       </c>
       <c r="AH2">
-        <v>0.9540139164351207</v>
+        <v>0.9999971956196025</v>
       </c>
       <c r="AI2">
-        <v>0.9926467901774916</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -1676,10 +3233,205 @@
       <c r="AR2">
         <v>1</v>
       </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:109">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1688,132 +3440,327 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001592534027200135</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.00455130603418142</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.005558315240596664</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.01892168083168235</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02107288974465594</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02978661404438191</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03606686655406617</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.04625868661099476</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.05170760957412863</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.06636930959542907</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.138941108739429</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1969320203922847</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.2014906278754791</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.2326940346030669</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.3115348644369205</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.363733741993387</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.3923964793979451</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.4157495812968595</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.4177542706674973</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.4406970169545369</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.5064652796145926</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.5942546242094457</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.6612844926227424</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.69192116140558</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.6958289501291892</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.6995793520240171</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.7194842467211946</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.7548849189228716</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.8073534455930762</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8784030212248253</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.9507977899347992</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0.04399206509020579</v>
+      </c>
+      <c r="BX3">
+        <v>0.04771305181166729</v>
+      </c>
+      <c r="BY3">
+        <v>0.05006229753757023</v>
+      </c>
+      <c r="BZ3">
+        <v>0.05433765204468378</v>
+      </c>
+      <c r="CA3">
+        <v>0.1312950104145604</v>
+      </c>
+      <c r="CB3">
+        <v>0.1745621702416404</v>
+      </c>
+      <c r="CC3">
+        <v>0.2107010678273017</v>
+      </c>
+      <c r="CD3">
+        <v>0.2268855172410105</v>
+      </c>
+      <c r="CE3">
+        <v>0.3075976342762695</v>
+      </c>
+      <c r="CF3">
+        <v>0.3078835027399922</v>
+      </c>
+      <c r="CG3">
+        <v>0.3255667534434317</v>
+      </c>
+      <c r="CH3">
+        <v>0.4289884769527697</v>
+      </c>
+      <c r="CI3">
+        <v>0.453739703912759</v>
+      </c>
+      <c r="CJ3">
+        <v>0.4537984005698608</v>
+      </c>
+      <c r="CK3">
+        <v>0.4981482316784723</v>
+      </c>
+      <c r="CL3">
+        <v>0.5012415945993346</v>
+      </c>
+      <c r="CM3">
+        <v>0.5933640668935322</v>
+      </c>
+      <c r="CN3">
+        <v>0.6829029679505865</v>
+      </c>
+      <c r="CO3">
+        <v>0.6888900642547995</v>
+      </c>
+      <c r="CP3">
+        <v>0.723694081528336</v>
+      </c>
+      <c r="CQ3">
+        <v>0.7311654717507099</v>
+      </c>
+      <c r="CR3">
+        <v>0.753625026338877</v>
+      </c>
+      <c r="CS3">
+        <v>0.8361496483723906</v>
+      </c>
+      <c r="CT3">
+        <v>0.8361496483723906</v>
+      </c>
+      <c r="CU3">
+        <v>0.8366342516360399</v>
+      </c>
+      <c r="CV3">
+        <v>0.8382110934908524</v>
+      </c>
+      <c r="CW3">
+        <v>0.8569511988815752</v>
+      </c>
+      <c r="CX3">
+        <v>0.9555050409140773</v>
+      </c>
+      <c r="CY3">
+        <v>0.9649050920980098</v>
+      </c>
+      <c r="CZ3">
+        <v>0.9756593250068634</v>
+      </c>
+      <c r="DA3">
+        <v>0.9965865811132478</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>1</v>
+      </c>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:109">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1822,132 +3769,327 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003062952473459558</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.008428429771900895</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.008990713628553141</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.03000412060399448</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03071157206001913</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.04073043553672437</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04400899967098225</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.06048688993021571</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06736143263379026</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.09183822461943057</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1698880760093618</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2118437918834644</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2143975665259086</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.2399109057713446</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.3210724626499952</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3759090384186867</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.4067160922775739</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.4283925667163839</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.4288081084572481</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.4555063123451233</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.5183807099911557</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.6034648318967079</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.6730274558704336</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.702769635713814</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.7060246831766922</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.7096492251318617</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.7291380199355243</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.7652521263019855</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.8208748885567159</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8914511971740084</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9550829456584082</v>
+        <v>0</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0.05208975881980726</v>
+      </c>
+      <c r="BW4">
+        <v>0.0666423504970049</v>
+      </c>
+      <c r="BX4">
+        <v>0.07123071043985371</v>
+      </c>
+      <c r="BY4">
+        <v>0.07289997849470044</v>
+      </c>
+      <c r="BZ4">
+        <v>0.08989509379788733</v>
+      </c>
+      <c r="CA4">
+        <v>0.09179657302875116</v>
+      </c>
+      <c r="CB4">
+        <v>0.1826589041719529</v>
+      </c>
+      <c r="CC4">
+        <v>0.1840146914770182</v>
+      </c>
+      <c r="CD4">
+        <v>0.2487133313672314</v>
+      </c>
+      <c r="CE4">
+        <v>0.3207787984953407</v>
+      </c>
+      <c r="CF4">
+        <v>0.3256345251466652</v>
+      </c>
+      <c r="CG4">
+        <v>0.3553667405689061</v>
+      </c>
+      <c r="CH4">
+        <v>0.5384998406427566</v>
+      </c>
+      <c r="CI4">
+        <v>0.5942748027470384</v>
+      </c>
+      <c r="CJ4">
+        <v>0.6161246018089186</v>
+      </c>
+      <c r="CK4">
+        <v>0.6308607413960845</v>
+      </c>
+      <c r="CL4">
+        <v>0.6394355670842897</v>
+      </c>
+      <c r="CM4">
+        <v>0.6617106377471842</v>
+      </c>
+      <c r="CN4">
+        <v>0.7597949264323864</v>
+      </c>
+      <c r="CO4">
+        <v>0.7831424914466993</v>
+      </c>
+      <c r="CP4">
+        <v>0.7882896171249555</v>
+      </c>
+      <c r="CQ4">
+        <v>0.8287273017973114</v>
+      </c>
+      <c r="CR4">
+        <v>0.8342196711997911</v>
+      </c>
+      <c r="CS4">
+        <v>0.9155069235901353</v>
+      </c>
+      <c r="CT4">
+        <v>0.9259809374413832</v>
+      </c>
+      <c r="CU4">
+        <v>0.9299567284307598</v>
+      </c>
+      <c r="CV4">
+        <v>0.9304203161112221</v>
+      </c>
+      <c r="CW4">
+        <v>0.9449322767882647</v>
+      </c>
+      <c r="CX4">
+        <v>0.9737608707447681</v>
+      </c>
+      <c r="CY4">
+        <v>0.9966424842217451</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9998270512652669</v>
+      </c>
+      <c r="DA4">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ4">
+      <c r="DB4">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AK4">
+      <c r="DC4">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AL4">
+      <c r="DD4">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AM4">
+      <c r="DE4">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AN4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AO4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AP4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AR4">
-        <v>0.9999999999999999</v>
-      </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:109">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1983,105 +4125,300 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001292586726154963</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.008110956891793974</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.01599115138442304</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.01607611077186312</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.03873083560660735</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.03921728336647792</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.04167403423039909</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.05231741877315951</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.08926639310495246</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.08940336056058112</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.111278092385734</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.1789382952179089</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.2627091635588002</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.2636520808727275</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.3131163787482592</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.3821090163814312</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.4239012730714339</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.4567313838634927</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.4772051177916269</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.4789535916323295</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.5302463259821546</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.6248286963572398</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.7070486785464996</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.7485966980195712</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.7718751345815392</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.7754870036997891</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.7802977646634294</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.8025996275199977</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.8402719846115206</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8918936447107331</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.9501270805551907</v>
+        <v>0</v>
       </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0.03956517723158087</v>
+      </c>
+      <c r="BJ5">
+        <v>0.04574774654476179</v>
+      </c>
+      <c r="BK5">
+        <v>0.04623002651161072</v>
+      </c>
+      <c r="BL5">
+        <v>0.05304929043767091</v>
+      </c>
+      <c r="BM5">
+        <v>0.07863162396195994</v>
+      </c>
+      <c r="BN5">
+        <v>0.08977885124023408</v>
+      </c>
+      <c r="BO5">
+        <v>0.115066462191956</v>
+      </c>
+      <c r="BP5">
+        <v>0.1320287806108396</v>
+      </c>
+      <c r="BQ5">
+        <v>0.2764421242310025</v>
+      </c>
+      <c r="BR5">
+        <v>0.2862152505966754</v>
+      </c>
+      <c r="BS5">
+        <v>0.3001079755224589</v>
+      </c>
+      <c r="BT5">
+        <v>0.3173623764374519</v>
+      </c>
+      <c r="BU5">
+        <v>0.381031684282227</v>
+      </c>
+      <c r="BV5">
+        <v>0.3905393253941085</v>
+      </c>
+      <c r="BW5">
+        <v>0.3905393253941085</v>
+      </c>
+      <c r="BX5">
+        <v>0.4015784079255547</v>
+      </c>
+      <c r="BY5">
+        <v>0.4093684304993893</v>
+      </c>
+      <c r="BZ5">
+        <v>0.5272323841191027</v>
+      </c>
+      <c r="CA5">
+        <v>0.5686341154076915</v>
+      </c>
+      <c r="CB5">
+        <v>0.569485573410204</v>
+      </c>
+      <c r="CC5">
+        <v>0.5734261030351295</v>
+      </c>
+      <c r="CD5">
+        <v>0.5746939794178051</v>
+      </c>
+      <c r="CE5">
+        <v>0.5978216888115822</v>
+      </c>
+      <c r="CF5">
+        <v>0.6056245563785316</v>
+      </c>
+      <c r="CG5">
+        <v>0.6206749967204801</v>
+      </c>
+      <c r="CH5">
+        <v>0.6375493980590835</v>
+      </c>
+      <c r="CI5">
+        <v>0.6922907782786819</v>
+      </c>
+      <c r="CJ5">
+        <v>0.8874628788521063</v>
+      </c>
+      <c r="CK5">
+        <v>0.8984992637650555</v>
+      </c>
+      <c r="CL5">
+        <v>0.9438046290984545</v>
+      </c>
+      <c r="CM5">
+        <v>0.9988486685179839</v>
+      </c>
+      <c r="CN5">
+        <v>1</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5">
+        <v>1</v>
+      </c>
+      <c r="CS5">
+        <v>1</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:109">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2117,99 +4454,294 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.002468630264257757</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.007403942889300262</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.007721684171761139</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.01899692590953632</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.02062004799152337</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.02067937103052174</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.02399003212343297</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.04008608388686408</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.06853630475308237</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.06873018601245211</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.09344367119538363</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.1580091272612337</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.1985043070893335</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.1985043070893335</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.2213712721953248</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.2592629632724696</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.3168464639665696</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.3903220193535205</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.4086962818261187</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.4150542888833413</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.459957864431831</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.5393819826744373</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.625117397975599</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.6793017813523147</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.6994866369284003</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.7036330069745357</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.7036469138238017</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.7187078219247371</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.7763842273156764</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8644300211330564</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.9431614369016874</v>
+        <v>0</v>
       </c>
       <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0.03985646314812322</v>
+      </c>
+      <c r="CA6">
+        <v>0.04023056112518054</v>
+      </c>
+      <c r="CB6">
+        <v>0.07298643747785882</v>
+      </c>
+      <c r="CC6">
+        <v>0.1005763466122827</v>
+      </c>
+      <c r="CD6">
+        <v>0.1660563102896964</v>
+      </c>
+      <c r="CE6">
+        <v>0.1774746678199403</v>
+      </c>
+      <c r="CF6">
+        <v>0.1981478206999694</v>
+      </c>
+      <c r="CG6">
+        <v>0.2123375867257501</v>
+      </c>
+      <c r="CH6">
+        <v>0.4179068629710093</v>
+      </c>
+      <c r="CI6">
+        <v>0.4292190810157913</v>
+      </c>
+      <c r="CJ6">
+        <v>0.4457724543985981</v>
+      </c>
+      <c r="CK6">
+        <v>0.4814519516258369</v>
+      </c>
+      <c r="CL6">
+        <v>0.4860036337930178</v>
+      </c>
+      <c r="CM6">
+        <v>0.5021750656678047</v>
+      </c>
+      <c r="CN6">
+        <v>0.5246465110212587</v>
+      </c>
+      <c r="CO6">
+        <v>0.6155141134291933</v>
+      </c>
+      <c r="CP6">
+        <v>0.6638385831934929</v>
+      </c>
+      <c r="CQ6">
+        <v>0.6783662976400886</v>
+      </c>
+      <c r="CR6">
+        <v>0.7107430206010547</v>
+      </c>
+      <c r="CS6">
+        <v>0.7384432218717436</v>
+      </c>
+      <c r="CT6">
+        <v>0.7387326812189002</v>
+      </c>
+      <c r="CU6">
+        <v>0.7624218498423071</v>
+      </c>
+      <c r="CV6">
+        <v>0.7915429461432941</v>
+      </c>
+      <c r="CW6">
+        <v>0.7944601196851887</v>
+      </c>
+      <c r="CX6">
+        <v>0.8083844092333609</v>
+      </c>
+      <c r="CY6">
+        <v>0.8094173628933367</v>
+      </c>
+      <c r="CZ6">
+        <v>0.8593899154616796</v>
+      </c>
+      <c r="DA6">
+        <v>0.9489877478710292</v>
+      </c>
+      <c r="DB6">
+        <v>0.9489877478710292</v>
+      </c>
+      <c r="DC6">
+        <v>0.9618779881762326</v>
+      </c>
+      <c r="DD6">
+        <v>0.9965106551238672</v>
+      </c>
+      <c r="DE6">
         <v>1</v>
       </c>
     </row>
@@ -2228,302 +4760,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.01205464671869356</v>
+        <v>0.08102754451722961</v>
       </c>
       <c r="F2">
-        <v>0.5740158056976855</v>
+        <v>0.5072025588171388</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="E3">
-        <v>0.01892168083168235</v>
+        <v>0.1312950104145604</v>
       </c>
       <c r="F3">
-        <v>0.5064652796145926</v>
+        <v>0.5012415945993346</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E4">
-        <v>0.03000412060399448</v>
+        <v>0.08989509379788733</v>
       </c>
       <c r="F4">
-        <v>0.5183807099911557</v>
+        <v>0.5384998406427566</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>0.01599115138442304</v>
+        <v>0.08977885124023408</v>
       </c>
       <c r="F5">
-        <v>0.5302463259821546</v>
+        <v>0.5272323841191027</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E6">
-        <v>0.01899692590953632</v>
+        <v>0.1005763466122827</v>
       </c>
       <c r="F6">
-        <v>0.5393819826744373</v>
+        <v>0.5021750656678047</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2541,302 +5058,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>29</v>
       </c>
       <c r="E2">
-        <v>0.01205464671869356</v>
+        <v>0.08102754451722961</v>
       </c>
       <c r="F2">
-        <v>0.7028478430791465</v>
+        <v>0.7899135509883876</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01892168083168235</v>
+        <v>0.1312950104145604</v>
       </c>
       <c r="F3">
-        <v>0.7194842467211946</v>
+        <v>0.723694081528336</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <v>0.03000412060399448</v>
+        <v>0.08989509379788733</v>
       </c>
       <c r="F4">
-        <v>0.702769635713814</v>
+        <v>0.7597949264323864</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E5">
-        <v>0.01599115138442304</v>
+        <v>0.08977885124023408</v>
       </c>
       <c r="F5">
-        <v>0.7070486785464996</v>
+        <v>0.8874628788521063</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>0.1005763466122827</v>
+      </c>
+      <c r="F6">
+        <v>0.7107430206010547</v>
+      </c>
+      <c r="G6">
         <v>15</v>
-      </c>
-      <c r="D6">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>0.01899692590953632</v>
-      </c>
-      <c r="F6">
-        <v>0.7036330069745357</v>
-      </c>
-      <c r="G6">
-        <v>22</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2854,72 +5356,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.01205464671869356</v>
+        <v>0.08102754451722961</v>
       </c>
       <c r="F2">
-        <v>0.8085298052237103</v>
+        <v>0.9309875228993596</v>
       </c>
       <c r="G2">
         <v>25</v>
@@ -2928,228 +5430,213 @@
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>0.01892168083168235</v>
+        <v>0.1312950104145604</v>
       </c>
       <c r="F3">
-        <v>0.8073534455930762</v>
+        <v>0.8361496483723906</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.03000412060399448</v>
+        <v>0.08989509379788733</v>
       </c>
       <c r="F4">
-        <v>0.8208748885567159</v>
+        <v>0.8287273017973114</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E5">
-        <v>0.01599115138442304</v>
+        <v>0.08977885124023408</v>
       </c>
       <c r="F5">
-        <v>0.8025996275199977</v>
+        <v>0.8874628788521063</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.01899692590953632</v>
+        <v>0.1005763466122827</v>
       </c>
       <c r="F6">
-        <v>0.8644300211330564</v>
+        <v>0.8083844092333609</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3167,302 +5654,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.01205464671869356</v>
+        <v>0.08102754451722961</v>
       </c>
       <c r="F2">
-        <v>0.9540139164351207</v>
+        <v>0.9309875228993596</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.01892168083168235</v>
+        <v>0.1312950104145604</v>
       </c>
       <c r="F3">
-        <v>0.9507977899347992</v>
+        <v>0.9555050409140773</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>0.03000412060399448</v>
+        <v>0.08989509379788733</v>
       </c>
       <c r="F4">
-        <v>0.9550829456584082</v>
+        <v>0.9155069235901353</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>0.01599115138442304</v>
+        <v>0.08977885124023408</v>
       </c>
       <c r="F5">
-        <v>0.9501270805551907</v>
+        <v>0.9438046290984545</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E6">
-        <v>0.01899692590953632</v>
+        <v>0.1005763466122827</v>
       </c>
       <c r="F6">
-        <v>0.9431614369016874</v>
+        <v>0.9489877478710292</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
